--- a/ner/nltk/nltk_ner_uppercased.xlsx
+++ b/ner/nltk/nltk_ner_uppercased.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>817</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2335</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2335</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2335</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2335</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>856</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7</v>
+        <v>856</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>856</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>2685</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>2685</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>2685</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9</v>
+        <v>1457</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9</v>
+        <v>1457</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9</v>
+        <v>1457</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9</v>
+        <v>1457</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9</v>
+        <v>1457</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10</v>
+        <v>2331</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10</v>
+        <v>2331</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10</v>
+        <v>2331</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10</v>
+        <v>2331</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10</v>
+        <v>2331</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11</v>
+        <v>642</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11</v>
+        <v>642</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11</v>
+        <v>642</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12</v>
+        <v>1728</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12</v>
+        <v>1728</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12</v>
+        <v>1728</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12</v>
+        <v>1728</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14</v>
+        <v>1867</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>14</v>
+        <v>1867</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14</v>
+        <v>1867</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15</v>
+        <v>1773</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15</v>
+        <v>1773</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>15</v>
+        <v>1773</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>16</v>
+        <v>1006</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16</v>
+        <v>1006</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16</v>
+        <v>1006</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18</v>
+        <v>2352</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18</v>
+        <v>2352</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18</v>
+        <v>2352</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>19</v>
+        <v>1045</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20</v>
+        <v>656</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20</v>
+        <v>656</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20</v>
+        <v>656</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20</v>
+        <v>656</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>22</v>
+        <v>2212</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>22</v>
+        <v>2212</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>22</v>
+        <v>2212</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>22</v>
+        <v>2212</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>22</v>
+        <v>2212</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>25</v>
+        <v>1037</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>25</v>
+        <v>1037</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>25</v>
+        <v>1037</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>25</v>
+        <v>1037</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>26</v>
+        <v>750</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>26</v>
+        <v>750</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>26</v>
+        <v>750</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27</v>
+        <v>1875</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>27</v>
+        <v>1875</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>27</v>
+        <v>1875</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>27</v>
+        <v>1875</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>27</v>
+        <v>1875</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28</v>
+        <v>2243</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>28</v>
+        <v>2243</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>28</v>
+        <v>2243</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>28</v>
+        <v>2243</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>29</v>
+        <v>1967</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>31</v>
+        <v>891</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>31</v>
+        <v>891</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>31</v>
+        <v>891</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>31</v>
+        <v>891</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>31</v>
+        <v>891</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>34</v>
+        <v>1211</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35</v>
+        <v>2210</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>35</v>
+        <v>2210</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>35</v>
+        <v>2210</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>35</v>
+        <v>2210</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>35</v>
+        <v>2210</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>36</v>
+        <v>1135</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>36</v>
+        <v>1135</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>36</v>
+        <v>1135</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>36</v>
+        <v>1135</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>37</v>
+        <v>2592</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>37</v>
+        <v>2592</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>37</v>
+        <v>2592</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>37</v>
+        <v>2592</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>37</v>
+        <v>2592</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>38</v>
+        <v>2598</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>39</v>
+        <v>1393</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>39</v>
+        <v>1393</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>44</v>
+        <v>2630</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>44</v>
+        <v>2630</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>44</v>
+        <v>2630</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>45</v>
+        <v>1693</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>45</v>
+        <v>1693</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>45</v>
+        <v>1693</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>45</v>
+        <v>1693</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>45</v>
+        <v>1693</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>46</v>
+        <v>495</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>46</v>
+        <v>495</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>46</v>
+        <v>495</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>46</v>
+        <v>495</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>47</v>
+        <v>2299</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>47</v>
+        <v>2299</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>47</v>
+        <v>2299</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>47</v>
+        <v>2299</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>47</v>
+        <v>2299</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>48</v>
+        <v>1772</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>48</v>
+        <v>1772</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>48</v>
+        <v>1772</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>48</v>
+        <v>1772</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>48</v>
+        <v>1772</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>49</v>
+        <v>1612</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>49</v>
+        <v>1612</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>50</v>
+        <v>795</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>50</v>
+        <v>795</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50</v>
+        <v>795</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>51</v>
+        <v>1887</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>52</v>
+        <v>896</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>52</v>
+        <v>896</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52</v>
+        <v>896</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52</v>
+        <v>896</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>52</v>
+        <v>896</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>53</v>
+        <v>1117</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>53</v>
+        <v>1117</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>53</v>
+        <v>1117</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>53</v>
+        <v>1117</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>54</v>
+        <v>2406</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>54</v>
+        <v>2406</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>54</v>
+        <v>2406</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>54</v>
+        <v>2406</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>54</v>
+        <v>2406</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>55</v>
+        <v>1970</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>56</v>
+        <v>1297</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>56</v>
+        <v>1297</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>56</v>
+        <v>1297</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>57</v>
+        <v>2429</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>57</v>
+        <v>2429</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>57</v>
+        <v>2429</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>58</v>
+        <v>1240</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>59</v>
+        <v>2160</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>60</v>
+        <v>1534</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>64</v>
+        <v>2650</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>64</v>
+        <v>2650</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>64</v>
+        <v>2650</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>64</v>
+        <v>2650</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>64</v>
+        <v>2650</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>65</v>
+        <v>1846</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>68</v>
+        <v>1406</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>68</v>
+        <v>1406</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>68</v>
+        <v>1406</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>69</v>
+        <v>1583</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>69</v>
+        <v>1583</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>70</v>
+        <v>2494</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>70</v>
+        <v>2494</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>70</v>
+        <v>2494</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>70</v>
+        <v>2494</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>70</v>
+        <v>2494</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>71</v>
+        <v>466</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>71</v>
+        <v>466</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>71</v>
+        <v>466</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>73</v>
+        <v>1882</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>73</v>
+        <v>1882</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>73</v>
+        <v>1882</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>73</v>
+        <v>1882</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>73</v>
+        <v>1882</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>74</v>
+        <v>2544</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>74</v>
+        <v>2544</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>74</v>
+        <v>2544</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>74</v>
+        <v>2544</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>76</v>
+        <v>2676</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>78</v>
+        <v>2642</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>78</v>
+        <v>2642</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>78</v>
+        <v>2642</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>78</v>
+        <v>2642</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>79</v>
+        <v>2566</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>79</v>
+        <v>2566</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>80</v>
+        <v>2264</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>81</v>
+        <v>1151</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>82</v>
+        <v>2458</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>82</v>
+        <v>2458</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>82</v>
+        <v>2458</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>82</v>
+        <v>2458</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>83</v>
+        <v>1940</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>83</v>
+        <v>1940</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>83</v>
+        <v>1940</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>83</v>
+        <v>1940</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>83</v>
+        <v>1940</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>84</v>
+        <v>914</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>84</v>
+        <v>914</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>84</v>
+        <v>914</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>85</v>
+        <v>1724</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>85</v>
+        <v>1724</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>85</v>
+        <v>1724</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>85</v>
+        <v>1724</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>85</v>
+        <v>1724</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>87</v>
+        <v>2403</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>88</v>
+        <v>1263</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>89</v>
+        <v>2099</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>89</v>
+        <v>2099</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>89</v>
+        <v>2099</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>89</v>
+        <v>2099</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>89</v>
+        <v>2099</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>90</v>
+        <v>2218</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>90</v>
+        <v>2218</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>90</v>
+        <v>2218</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>90</v>
+        <v>2218</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>91</v>
+        <v>2296</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>91</v>
+        <v>2296</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>91</v>
+        <v>2296</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>92</v>
+        <v>1920</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>93</v>
+        <v>2334</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>93</v>
+        <v>2334</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>93</v>
+        <v>2334</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>93</v>
+        <v>2334</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>94</v>
+        <v>1033</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>94</v>
+        <v>1033</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>94</v>
+        <v>1033</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>94</v>
+        <v>1033</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>95</v>
+        <v>1311</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>96</v>
+        <v>2245</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>97</v>
+        <v>2045</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>98</v>
+        <v>1210</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>98</v>
+        <v>1210</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>98</v>
+        <v>1210</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>98</v>
+        <v>1210</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>98</v>
+        <v>1210</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>99</v>
+        <v>2488</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>99</v>
+        <v>2488</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>99</v>
+        <v>2488</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>99</v>
+        <v>2488</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>99</v>
+        <v>2488</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
